--- a/Commercial Mortgage Model (Orlando Commerce Center).xlsx
+++ b/Commercial Mortgage Model (Orlando Commerce Center).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d2e6b5b813af4a/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d2e6b5b813af4a/Área de Trabalho/Projects/Commercial Mortgage Model - OCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{4B5A18E5-4894-45F2-BFFC-FF0B8ED0CEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C324A870-922F-4299-A4CE-891F933E5995}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:1_{4B5A18E5-4894-45F2-BFFC-FF0B8ED0CEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD192B08-9533-4110-823F-7C91BF8B3AC3}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="3bHwZU2oTngV69pzElIXz6nXnJ1vSarfv+ENS9YPeic1Mzly7Maswr5YZPrx/Mvi20pbZho9ed4j7r0gl3fn6A==" workbookSaltValue="+KVr+/r3o3ndbI7UKEK9yw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -3350,7 +3350,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3662,7 +3662,7 @@
         <v>10000</v>
       </c>
       <c r="F8" s="117" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="G8" s="117">
         <v>7</v>
@@ -3947,7 +3947,7 @@
         <v>7500</v>
       </c>
       <c r="F13" s="116" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G13" s="116">
         <v>4</v>
@@ -4535,7 +4535,7 @@
   <dimension ref="A1:R88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6379,7 +6379,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7062,7 +7062,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Commercial Mortgage Model (Orlando Commerce Center).xlsx
+++ b/Commercial Mortgage Model (Orlando Commerce Center).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d2e6b5b813af4a/Área de Trabalho/Projects/Commercial Mortgage Model - OCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:1_{4B5A18E5-4894-45F2-BFFC-FF0B8ED0CEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD192B08-9533-4110-823F-7C91BF8B3AC3}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="13_ncr:1_{4B5A18E5-4894-45F2-BFFC-FF0B8ED0CEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8010D43-2D7F-4554-BDA7-B6AAB73A1BEA}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="3bHwZU2oTngV69pzElIXz6nXnJ1vSarfv+ENS9YPeic1Mzly7Maswr5YZPrx/Mvi20pbZho9ed4j7r0gl3fn6A==" workbookSaltValue="+KVr+/r3o3ndbI7UKEK9yw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -2118,6 +2118,48 @@
     <xf numFmtId="14" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2126,12 +2168,6 @@
     </xf>
     <xf numFmtId="174" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="174" fontId="23" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2143,42 +2179,6 @@
     </xf>
     <xf numFmtId="174" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4639,17 +4639,17 @@
         <v>109</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="260" t="s">
+      <c r="D5" s="254" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="261"/>
-      <c r="F5" s="268"/>
-      <c r="G5" s="269"/>
-      <c r="H5" s="269"/>
-      <c r="I5" s="269"/>
-      <c r="J5" s="269"/>
-      <c r="K5" s="269"/>
-      <c r="L5" s="269"/>
+      <c r="E5" s="255"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="249"/>
+      <c r="K5" s="249"/>
+      <c r="L5" s="249"/>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5" s="241"/>
@@ -4660,19 +4660,19 @@
         <v>38</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="260" t="s">
+      <c r="D6" s="254" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="261"/>
-      <c r="F6" s="268" t="s">
+      <c r="E6" s="255"/>
+      <c r="F6" s="248" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="269"/>
-      <c r="H6" s="269"/>
-      <c r="I6" s="269"/>
-      <c r="J6" s="269"/>
-      <c r="K6" s="269"/>
-      <c r="L6" s="269"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="249"/>
+      <c r="K6" s="249"/>
+      <c r="L6" s="249"/>
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6" s="242"/>
@@ -4683,19 +4683,19 @@
         <v>37</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="262" t="s">
+      <c r="D7" s="256" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="263"/>
-      <c r="F7" s="268" t="s">
+      <c r="E7" s="257"/>
+      <c r="F7" s="248" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="269"/>
-      <c r="H7" s="269"/>
-      <c r="I7" s="269"/>
-      <c r="J7" s="269"/>
-      <c r="K7" s="269"/>
-      <c r="L7" s="269"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="249"/>
+      <c r="K7" s="249"/>
+      <c r="L7" s="249"/>
       <c r="P7" s="243"/>
       <c r="Q7" s="242"/>
       <c r="R7" s="242"/>
@@ -4705,17 +4705,17 @@
       <c r="B8" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="264">
+      <c r="D8" s="258">
         <v>2008</v>
       </c>
-      <c r="E8" s="265"/>
-      <c r="F8" s="268"/>
-      <c r="G8" s="269"/>
-      <c r="H8" s="269"/>
-      <c r="I8" s="269"/>
-      <c r="J8" s="269"/>
-      <c r="K8" s="269"/>
-      <c r="L8" s="269"/>
+      <c r="E8" s="259"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="249"/>
+      <c r="K8" s="249"/>
+      <c r="L8" s="249"/>
       <c r="P8" s="242"/>
       <c r="Q8" s="242"/>
       <c r="R8" s="244"/>
@@ -4725,20 +4725,20 @@
       <c r="B9" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="266">
+      <c r="D9" s="260">
         <f>IF(D8=0,"NA",YEAR(Analysis!$G$2)-D8)</f>
         <v>17</v>
       </c>
-      <c r="E9" s="267"/>
-      <c r="F9" s="268" t="s">
+      <c r="E9" s="261"/>
+      <c r="F9" s="248" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="269"/>
-      <c r="H9" s="269"/>
-      <c r="I9" s="269"/>
-      <c r="J9" s="269"/>
-      <c r="K9" s="269"/>
-      <c r="L9" s="269"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="249"/>
+      <c r="I9" s="249"/>
+      <c r="J9" s="249"/>
+      <c r="K9" s="249"/>
+      <c r="L9" s="249"/>
       <c r="P9" s="242"/>
       <c r="Q9" s="242"/>
       <c r="R9" s="244"/>
@@ -4752,13 +4752,13 @@
         <v>12</v>
       </c>
       <c r="E10" s="253"/>
-      <c r="F10" s="268"/>
-      <c r="G10" s="269"/>
-      <c r="H10" s="269"/>
-      <c r="I10" s="269"/>
-      <c r="J10" s="269"/>
-      <c r="K10" s="269"/>
-      <c r="L10" s="269"/>
+      <c r="F10" s="248"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="249"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="249"/>
+      <c r="K10" s="249"/>
+      <c r="L10" s="249"/>
       <c r="P10" s="242"/>
       <c r="Q10" s="242"/>
       <c r="R10" s="245"/>
@@ -4771,13 +4771,13 @@
         <v>50</v>
       </c>
       <c r="E11" s="253"/>
-      <c r="F11" s="258"/>
-      <c r="G11" s="259"/>
-      <c r="H11" s="259"/>
-      <c r="I11" s="259"/>
-      <c r="J11" s="259"/>
-      <c r="K11" s="259"/>
-      <c r="L11" s="259"/>
+      <c r="F11" s="250"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="251"/>
+      <c r="J11" s="251"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="251"/>
       <c r="P11" s="242"/>
       <c r="Q11" s="242"/>
       <c r="R11" s="243"/>
@@ -4786,20 +4786,20 @@
       <c r="B12" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="254">
+      <c r="D12" s="266">
         <f>IFERROR(D11-D9, "NA")</f>
         <v>33</v>
       </c>
-      <c r="E12" s="255"/>
-      <c r="F12" s="258" t="s">
+      <c r="E12" s="267"/>
+      <c r="F12" s="250" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="259"/>
-      <c r="H12" s="259"/>
-      <c r="I12" s="259"/>
-      <c r="J12" s="259"/>
-      <c r="K12" s="259"/>
-      <c r="L12" s="259"/>
+      <c r="G12" s="251"/>
+      <c r="H12" s="251"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="251"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="251"/>
       <c r="P12" s="242"/>
       <c r="Q12" s="242"/>
       <c r="R12" s="243"/>
@@ -4812,15 +4812,15 @@
         <v>177</v>
       </c>
       <c r="E13" s="253"/>
-      <c r="F13" s="258" t="s">
+      <c r="F13" s="250" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="259"/>
-      <c r="H13" s="259"/>
-      <c r="I13" s="259"/>
-      <c r="J13" s="259"/>
-      <c r="K13" s="259"/>
-      <c r="L13" s="259"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="251"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="251"/>
       <c r="P13" s="242"/>
       <c r="Q13" s="242"/>
       <c r="R13" s="245"/>
@@ -4833,15 +4833,15 @@
         <v>165</v>
       </c>
       <c r="E14" s="253"/>
-      <c r="F14" s="258" t="s">
+      <c r="F14" s="250" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="259"/>
-      <c r="H14" s="259"/>
-      <c r="I14" s="259"/>
-      <c r="J14" s="259"/>
-      <c r="K14" s="259"/>
-      <c r="L14" s="259"/>
+      <c r="G14" s="251"/>
+      <c r="H14" s="251"/>
+      <c r="I14" s="251"/>
+      <c r="J14" s="251"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="251"/>
       <c r="P14" s="242"/>
       <c r="Q14" s="242"/>
       <c r="R14" s="245"/>
@@ -4881,19 +4881,19 @@
       <c r="B17" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="256" t="s">
+      <c r="D17" s="268" t="s">
         <v>198</v>
       </c>
-      <c r="E17" s="257"/>
-      <c r="F17" s="258" t="s">
+      <c r="E17" s="269"/>
+      <c r="F17" s="250" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="259"/>
-      <c r="H17" s="259"/>
-      <c r="I17" s="259"/>
-      <c r="J17" s="259"/>
-      <c r="K17" s="259"/>
-      <c r="L17" s="259"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="251"/>
+      <c r="I17" s="251"/>
+      <c r="J17" s="251"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="251"/>
       <c r="P17" s="242"/>
       <c r="Q17" s="242"/>
       <c r="R17" s="245"/>
@@ -4902,19 +4902,19 @@
       <c r="B18" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="250">
+      <c r="D18" s="264">
         <v>120000</v>
       </c>
-      <c r="E18" s="251"/>
-      <c r="F18" s="258" t="s">
+      <c r="E18" s="265"/>
+      <c r="F18" s="250" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="259"/>
-      <c r="H18" s="259"/>
-      <c r="I18" s="259"/>
-      <c r="J18" s="259"/>
-      <c r="K18" s="259"/>
-      <c r="L18" s="259"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="251"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="251"/>
       <c r="P18" s="242"/>
       <c r="Q18" s="242"/>
       <c r="R18" s="245"/>
@@ -4962,15 +4962,15 @@
       <c r="E22" s="79">
         <v>19000000</v>
       </c>
-      <c r="F22" s="248" t="s">
+      <c r="F22" s="262" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="249"/>
-      <c r="H22" s="249"/>
-      <c r="I22" s="249"/>
-      <c r="J22" s="249"/>
-      <c r="K22" s="249"/>
-      <c r="L22" s="249"/>
+      <c r="G22" s="263"/>
+      <c r="H22" s="263"/>
+      <c r="I22" s="263"/>
+      <c r="J22" s="263"/>
+      <c r="K22" s="263"/>
+      <c r="L22" s="263"/>
       <c r="M22" s="96"/>
       <c r="P22" s="242"/>
       <c r="Q22" s="242"/>
@@ -4984,13 +4984,13 @@
       <c r="E23" s="65">
         <v>12</v>
       </c>
-      <c r="F23" s="248"/>
-      <c r="G23" s="249"/>
-      <c r="H23" s="249"/>
-      <c r="I23" s="249"/>
-      <c r="J23" s="249"/>
-      <c r="K23" s="249"/>
-      <c r="L23" s="249"/>
+      <c r="F23" s="262"/>
+      <c r="G23" s="263"/>
+      <c r="H23" s="263"/>
+      <c r="I23" s="263"/>
+      <c r="J23" s="263"/>
+      <c r="K23" s="263"/>
+      <c r="L23" s="263"/>
       <c r="P23" s="242"/>
       <c r="Q23" s="242"/>
       <c r="R23" s="245"/>
@@ -5004,13 +5004,13 @@
         <f>INDEX(Admin!H7:H13,MATCH(Analysis!$D$5,Admin!B7:B13,0))</f>
         <v>300</v>
       </c>
-      <c r="F24" s="248"/>
-      <c r="G24" s="249"/>
-      <c r="H24" s="249"/>
-      <c r="I24" s="249"/>
-      <c r="J24" s="249"/>
-      <c r="K24" s="249"/>
-      <c r="L24" s="249"/>
+      <c r="F24" s="262"/>
+      <c r="G24" s="263"/>
+      <c r="H24" s="263"/>
+      <c r="I24" s="263"/>
+      <c r="J24" s="263"/>
+      <c r="K24" s="263"/>
+      <c r="L24" s="263"/>
       <c r="M24" s="156"/>
       <c r="P24" s="242"/>
       <c r="Q24" s="242"/>
@@ -5023,13 +5023,13 @@
       <c r="E25" s="76">
         <v>0.06</v>
       </c>
-      <c r="F25" s="248"/>
-      <c r="G25" s="249"/>
-      <c r="H25" s="249"/>
-      <c r="I25" s="249"/>
-      <c r="J25" s="249"/>
-      <c r="K25" s="249"/>
-      <c r="L25" s="249"/>
+      <c r="F25" s="262"/>
+      <c r="G25" s="263"/>
+      <c r="H25" s="263"/>
+      <c r="I25" s="263"/>
+      <c r="J25" s="263"/>
+      <c r="K25" s="263"/>
+      <c r="L25" s="263"/>
       <c r="P25" s="242"/>
       <c r="Q25" s="242"/>
       <c r="R25" s="245"/>
@@ -5041,13 +5041,13 @@
       <c r="E26" s="77">
         <v>48</v>
       </c>
-      <c r="F26" s="248"/>
-      <c r="G26" s="249"/>
-      <c r="H26" s="249"/>
-      <c r="I26" s="249"/>
-      <c r="J26" s="249"/>
-      <c r="K26" s="249"/>
-      <c r="L26" s="249"/>
+      <c r="F26" s="262"/>
+      <c r="G26" s="263"/>
+      <c r="H26" s="263"/>
+      <c r="I26" s="263"/>
+      <c r="J26" s="263"/>
+      <c r="K26" s="263"/>
+      <c r="L26" s="263"/>
       <c r="M26" s="97"/>
       <c r="P26" s="242"/>
       <c r="Q26" s="242"/>
@@ -5061,13 +5061,13 @@
         <f>-PMT($E$25/$E$23,$E$24,$E$22,0,0)*$E$23</f>
         <v>1469007.1953869597</v>
       </c>
-      <c r="F27" s="248"/>
-      <c r="G27" s="249"/>
-      <c r="H27" s="249"/>
-      <c r="I27" s="249"/>
-      <c r="J27" s="249"/>
-      <c r="K27" s="249"/>
-      <c r="L27" s="249"/>
+      <c r="F27" s="262"/>
+      <c r="G27" s="263"/>
+      <c r="H27" s="263"/>
+      <c r="I27" s="263"/>
+      <c r="J27" s="263"/>
+      <c r="K27" s="263"/>
+      <c r="L27" s="263"/>
       <c r="N27" s="97"/>
       <c r="P27" s="242"/>
       <c r="Q27" s="242"/>
@@ -5081,13 +5081,13 @@
         <f>INDEX(Admin!F7:F13,MATCH($D$5,Admin!B7:B13,0))</f>
         <v>1.3</v>
       </c>
-      <c r="F28" s="248"/>
-      <c r="G28" s="249"/>
-      <c r="H28" s="249"/>
-      <c r="I28" s="249"/>
-      <c r="J28" s="249"/>
-      <c r="K28" s="249"/>
-      <c r="L28" s="249"/>
+      <c r="F28" s="262"/>
+      <c r="G28" s="263"/>
+      <c r="H28" s="263"/>
+      <c r="I28" s="263"/>
+      <c r="J28" s="263"/>
+      <c r="K28" s="263"/>
+      <c r="L28" s="263"/>
       <c r="P28" s="242"/>
       <c r="Q28" s="242"/>
       <c r="R28" s="245"/>
@@ -6286,23 +6286,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
     <mergeCell ref="F22:L28"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D11:E11"/>
@@ -6311,6 +6294,23 @@
     <mergeCell ref="F14:L14"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="F13:L13"/>
   </mergeCells>
   <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
@@ -7062,7 +7062,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7132,7 +7132,7 @@
         <v>181</v>
       </c>
       <c r="B6" s="210">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="C6" s="209"/>
       <c r="D6" s="25" t="s">
@@ -7151,7 +7151,7 @@
         <v>182</v>
       </c>
       <c r="B7" s="210">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C7" s="64"/>
       <c r="D7" s="25" t="s">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B19" s="218">
         <f>B6</f>
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="C19" s="64"/>
       <c r="F19" s="64"/>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="B20" s="218">
         <f>B7</f>
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C20" s="64"/>
       <c r="F20" s="64"/>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="B23" s="232">
         <f>IFERROR(((B15*B17)+B19)-((B15*B18)+B20)-(B15*B21*B22),"na")</f>
-        <v>395850</v>
+        <v>350850</v>
       </c>
       <c r="C23" s="233"/>
       <c r="D23" s="234" t="s">
@@ -7383,7 +7383,7 @@
       <c r="E23" s="234"/>
       <c r="F23" s="235">
         <f>IFERROR(B23/F17,"na")</f>
-        <v>0.41668421052631577</v>
+        <v>0.36931578947368421</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">

--- a/Commercial Mortgage Model (Orlando Commerce Center).xlsx
+++ b/Commercial Mortgage Model (Orlando Commerce Center).xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08d2e6b5b813af4a/Área de Trabalho/Projects/Commercial Mortgage Model - OCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="13_ncr:1_{4B5A18E5-4894-45F2-BFFC-FF0B8ED0CEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8010D43-2D7F-4554-BDA7-B6AAB73A1BEA}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{4B5A18E5-4894-45F2-BFFC-FF0B8ED0CEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46F22AAC-089E-4486-A15B-8DB0919CEC94}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="3bHwZU2oTngV69pzElIXz6nXnJ1vSarfv+ENS9YPeic1Mzly7Maswr5YZPrx/Mvi20pbZho9ed4j7r0gl3fn6A==" workbookSaltValue="+KVr+/r3o3ndbI7UKEK9yw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="3" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="227">
   <si>
     <t>© Corporate Finance Institute®. All rights reserved.</t>
   </si>
@@ -949,6 +949,9 @@
   </si>
   <si>
     <t>Retail - Shopping Center</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -2118,67 +2121,67 @@
     <xf numFmtId="14" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="23" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="173" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="23" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="174" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="174" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4534,8 +4537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8186DF54-EB35-47D8-B00B-C65A8DE46046}">
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4639,17 +4642,17 @@
         <v>109</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="254" t="s">
+      <c r="D5" s="260" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="255"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="249"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="249"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="269"/>
+      <c r="I5" s="269"/>
+      <c r="J5" s="269"/>
+      <c r="K5" s="269"/>
+      <c r="L5" s="269"/>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5" s="241"/>
@@ -4660,19 +4663,19 @@
         <v>38</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="254" t="s">
+      <c r="D6" s="260" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="255"/>
-      <c r="F6" s="248" t="s">
+      <c r="E6" s="261"/>
+      <c r="F6" s="268" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="249"/>
-      <c r="K6" s="249"/>
-      <c r="L6" s="249"/>
+      <c r="G6" s="269"/>
+      <c r="H6" s="269"/>
+      <c r="I6" s="269"/>
+      <c r="J6" s="269"/>
+      <c r="K6" s="269"/>
+      <c r="L6" s="269"/>
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6" s="242"/>
@@ -4683,19 +4686,19 @@
         <v>37</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="256" t="s">
+      <c r="D7" s="262" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="257"/>
-      <c r="F7" s="248" t="s">
+      <c r="E7" s="263"/>
+      <c r="F7" s="268" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="249"/>
-      <c r="K7" s="249"/>
-      <c r="L7" s="249"/>
+      <c r="G7" s="269"/>
+      <c r="H7" s="269"/>
+      <c r="I7" s="269"/>
+      <c r="J7" s="269"/>
+      <c r="K7" s="269"/>
+      <c r="L7" s="269"/>
       <c r="P7" s="243"/>
       <c r="Q7" s="242"/>
       <c r="R7" s="242"/>
@@ -4705,17 +4708,17 @@
       <c r="B8" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="258">
+      <c r="D8" s="264">
         <v>2008</v>
       </c>
-      <c r="E8" s="259"/>
-      <c r="F8" s="248"/>
-      <c r="G8" s="249"/>
-      <c r="H8" s="249"/>
-      <c r="I8" s="249"/>
-      <c r="J8" s="249"/>
-      <c r="K8" s="249"/>
-      <c r="L8" s="249"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="268"/>
+      <c r="G8" s="269"/>
+      <c r="H8" s="269"/>
+      <c r="I8" s="269"/>
+      <c r="J8" s="269"/>
+      <c r="K8" s="269"/>
+      <c r="L8" s="269"/>
       <c r="P8" s="242"/>
       <c r="Q8" s="242"/>
       <c r="R8" s="244"/>
@@ -4725,20 +4728,20 @@
       <c r="B9" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="260">
+      <c r="D9" s="266">
         <f>IF(D8=0,"NA",YEAR(Analysis!$G$2)-D8)</f>
         <v>17</v>
       </c>
-      <c r="E9" s="261"/>
-      <c r="F9" s="248" t="s">
+      <c r="E9" s="267"/>
+      <c r="F9" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="249"/>
-      <c r="J9" s="249"/>
-      <c r="K9" s="249"/>
-      <c r="L9" s="249"/>
+      <c r="G9" s="269"/>
+      <c r="H9" s="269"/>
+      <c r="I9" s="269"/>
+      <c r="J9" s="269"/>
+      <c r="K9" s="269"/>
+      <c r="L9" s="269"/>
       <c r="P9" s="242"/>
       <c r="Q9" s="242"/>
       <c r="R9" s="244"/>
@@ -4752,13 +4755,13 @@
         <v>12</v>
       </c>
       <c r="E10" s="253"/>
-      <c r="F10" s="248"/>
-      <c r="G10" s="249"/>
-      <c r="H10" s="249"/>
-      <c r="I10" s="249"/>
-      <c r="J10" s="249"/>
-      <c r="K10" s="249"/>
-      <c r="L10" s="249"/>
+      <c r="F10" s="268"/>
+      <c r="G10" s="269"/>
+      <c r="H10" s="269"/>
+      <c r="I10" s="269"/>
+      <c r="J10" s="269"/>
+      <c r="K10" s="269"/>
+      <c r="L10" s="269"/>
       <c r="P10" s="242"/>
       <c r="Q10" s="242"/>
       <c r="R10" s="245"/>
@@ -4771,13 +4774,13 @@
         <v>50</v>
       </c>
       <c r="E11" s="253"/>
-      <c r="F11" s="250"/>
-      <c r="G11" s="251"/>
-      <c r="H11" s="251"/>
-      <c r="I11" s="251"/>
-      <c r="J11" s="251"/>
-      <c r="K11" s="251"/>
-      <c r="L11" s="251"/>
+      <c r="F11" s="258"/>
+      <c r="G11" s="259"/>
+      <c r="H11" s="259"/>
+      <c r="I11" s="259"/>
+      <c r="J11" s="259"/>
+      <c r="K11" s="259"/>
+      <c r="L11" s="259"/>
       <c r="P11" s="242"/>
       <c r="Q11" s="242"/>
       <c r="R11" s="243"/>
@@ -4786,20 +4789,20 @@
       <c r="B12" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="266">
+      <c r="D12" s="254">
         <f>IFERROR(D11-D9, "NA")</f>
         <v>33</v>
       </c>
-      <c r="E12" s="267"/>
-      <c r="F12" s="250" t="s">
+      <c r="E12" s="255"/>
+      <c r="F12" s="258" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="251"/>
-      <c r="H12" s="251"/>
-      <c r="I12" s="251"/>
-      <c r="J12" s="251"/>
-      <c r="K12" s="251"/>
-      <c r="L12" s="251"/>
+      <c r="G12" s="259"/>
+      <c r="H12" s="259"/>
+      <c r="I12" s="259"/>
+      <c r="J12" s="259"/>
+      <c r="K12" s="259"/>
+      <c r="L12" s="259"/>
       <c r="P12" s="242"/>
       <c r="Q12" s="242"/>
       <c r="R12" s="243"/>
@@ -4812,15 +4815,15 @@
         <v>177</v>
       </c>
       <c r="E13" s="253"/>
-      <c r="F13" s="250" t="s">
+      <c r="F13" s="258" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="251"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="259"/>
+      <c r="I13" s="259"/>
+      <c r="J13" s="259"/>
+      <c r="K13" s="259"/>
+      <c r="L13" s="259"/>
       <c r="P13" s="242"/>
       <c r="Q13" s="242"/>
       <c r="R13" s="245"/>
@@ -4833,15 +4836,15 @@
         <v>165</v>
       </c>
       <c r="E14" s="253"/>
-      <c r="F14" s="250" t="s">
+      <c r="F14" s="258" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="251"/>
-      <c r="H14" s="251"/>
-      <c r="I14" s="251"/>
-      <c r="J14" s="251"/>
-      <c r="K14" s="251"/>
-      <c r="L14" s="251"/>
+      <c r="G14" s="259"/>
+      <c r="H14" s="259"/>
+      <c r="I14" s="259"/>
+      <c r="J14" s="259"/>
+      <c r="K14" s="259"/>
+      <c r="L14" s="259"/>
       <c r="P14" s="242"/>
       <c r="Q14" s="242"/>
       <c r="R14" s="245"/>
@@ -4881,19 +4884,19 @@
       <c r="B17" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="268" t="s">
+      <c r="D17" s="256" t="s">
         <v>198</v>
       </c>
-      <c r="E17" s="269"/>
-      <c r="F17" s="250" t="s">
+      <c r="E17" s="257"/>
+      <c r="F17" s="258" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="251"/>
-      <c r="H17" s="251"/>
-      <c r="I17" s="251"/>
-      <c r="J17" s="251"/>
-      <c r="K17" s="251"/>
-      <c r="L17" s="251"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="259"/>
+      <c r="J17" s="259"/>
+      <c r="K17" s="259"/>
+      <c r="L17" s="259"/>
       <c r="P17" s="242"/>
       <c r="Q17" s="242"/>
       <c r="R17" s="245"/>
@@ -4902,19 +4905,19 @@
       <c r="B18" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="264">
+      <c r="D18" s="250">
         <v>120000</v>
       </c>
-      <c r="E18" s="265"/>
-      <c r="F18" s="250" t="s">
+      <c r="E18" s="251"/>
+      <c r="F18" s="258" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="251"/>
-      <c r="H18" s="251"/>
-      <c r="I18" s="251"/>
-      <c r="J18" s="251"/>
-      <c r="K18" s="251"/>
-      <c r="L18" s="251"/>
+      <c r="G18" s="259"/>
+      <c r="H18" s="259"/>
+      <c r="I18" s="259"/>
+      <c r="J18" s="259"/>
+      <c r="K18" s="259"/>
+      <c r="L18" s="259"/>
       <c r="P18" s="242"/>
       <c r="Q18" s="242"/>
       <c r="R18" s="245"/>
@@ -4960,17 +4963,17 @@
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="79">
-        <v>19000000</v>
-      </c>
-      <c r="F22" s="262" t="s">
+        <v>20000000</v>
+      </c>
+      <c r="F22" s="248" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="263"/>
-      <c r="H22" s="263"/>
-      <c r="I22" s="263"/>
-      <c r="J22" s="263"/>
-      <c r="K22" s="263"/>
-      <c r="L22" s="263"/>
+      <c r="G22" s="249"/>
+      <c r="H22" s="249"/>
+      <c r="I22" s="249"/>
+      <c r="J22" s="249"/>
+      <c r="K22" s="249"/>
+      <c r="L22" s="249"/>
       <c r="M22" s="96"/>
       <c r="P22" s="242"/>
       <c r="Q22" s="242"/>
@@ -4984,13 +4987,13 @@
       <c r="E23" s="65">
         <v>12</v>
       </c>
-      <c r="F23" s="262"/>
-      <c r="G23" s="263"/>
-      <c r="H23" s="263"/>
-      <c r="I23" s="263"/>
-      <c r="J23" s="263"/>
-      <c r="K23" s="263"/>
-      <c r="L23" s="263"/>
+      <c r="F23" s="248"/>
+      <c r="G23" s="249"/>
+      <c r="H23" s="249"/>
+      <c r="I23" s="249"/>
+      <c r="J23" s="249"/>
+      <c r="K23" s="249"/>
+      <c r="L23" s="249"/>
       <c r="P23" s="242"/>
       <c r="Q23" s="242"/>
       <c r="R23" s="245"/>
@@ -5004,13 +5007,13 @@
         <f>INDEX(Admin!H7:H13,MATCH(Analysis!$D$5,Admin!B7:B13,0))</f>
         <v>300</v>
       </c>
-      <c r="F24" s="262"/>
-      <c r="G24" s="263"/>
-      <c r="H24" s="263"/>
-      <c r="I24" s="263"/>
-      <c r="J24" s="263"/>
-      <c r="K24" s="263"/>
-      <c r="L24" s="263"/>
+      <c r="F24" s="248"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="249"/>
+      <c r="I24" s="249"/>
+      <c r="J24" s="249"/>
+      <c r="K24" s="249"/>
+      <c r="L24" s="249"/>
       <c r="M24" s="156"/>
       <c r="P24" s="242"/>
       <c r="Q24" s="242"/>
@@ -5021,15 +5024,15 @@
         <v>106</v>
       </c>
       <c r="E25" s="76">
-        <v>0.06</v>
-      </c>
-      <c r="F25" s="262"/>
-      <c r="G25" s="263"/>
-      <c r="H25" s="263"/>
-      <c r="I25" s="263"/>
-      <c r="J25" s="263"/>
-      <c r="K25" s="263"/>
-      <c r="L25" s="263"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="F25" s="248"/>
+      <c r="G25" s="249"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="249"/>
+      <c r="J25" s="249"/>
+      <c r="K25" s="249"/>
+      <c r="L25" s="249"/>
       <c r="P25" s="242"/>
       <c r="Q25" s="242"/>
       <c r="R25" s="245"/>
@@ -5041,13 +5044,13 @@
       <c r="E26" s="77">
         <v>48</v>
       </c>
-      <c r="F26" s="262"/>
-      <c r="G26" s="263"/>
-      <c r="H26" s="263"/>
-      <c r="I26" s="263"/>
-      <c r="J26" s="263"/>
-      <c r="K26" s="263"/>
-      <c r="L26" s="263"/>
+      <c r="F26" s="248"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="249"/>
+      <c r="J26" s="249"/>
+      <c r="K26" s="249"/>
+      <c r="L26" s="249"/>
       <c r="M26" s="97"/>
       <c r="P26" s="242"/>
       <c r="Q26" s="242"/>
@@ -5059,15 +5062,15 @@
       </c>
       <c r="E27" s="80">
         <f>-PMT($E$25/$E$23,$E$24,$E$22,0,0)*$E$23</f>
-        <v>1469007.1953869597</v>
-      </c>
-      <c r="F27" s="262"/>
-      <c r="G27" s="263"/>
-      <c r="H27" s="263"/>
-      <c r="I27" s="263"/>
-      <c r="J27" s="263"/>
-      <c r="K27" s="263"/>
-      <c r="L27" s="263"/>
+        <v>1473809.9814755286</v>
+      </c>
+      <c r="F27" s="248"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="249"/>
+      <c r="K27" s="249"/>
+      <c r="L27" s="249"/>
       <c r="N27" s="97"/>
       <c r="P27" s="242"/>
       <c r="Q27" s="242"/>
@@ -5081,13 +5084,13 @@
         <f>INDEX(Admin!F7:F13,MATCH($D$5,Admin!B7:B13,0))</f>
         <v>1.3</v>
       </c>
-      <c r="F28" s="262"/>
-      <c r="G28" s="263"/>
-      <c r="H28" s="263"/>
-      <c r="I28" s="263"/>
-      <c r="J28" s="263"/>
-      <c r="K28" s="263"/>
-      <c r="L28" s="263"/>
+      <c r="F28" s="248"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="249"/>
+      <c r="J28" s="249"/>
+      <c r="K28" s="249"/>
+      <c r="L28" s="249"/>
       <c r="P28" s="242"/>
       <c r="Q28" s="242"/>
       <c r="R28" s="245"/>
@@ -5290,11 +5293,11 @@
       <c r="M37" s="60"/>
       <c r="N37" s="81">
         <f>$E$22</f>
-        <v>19000000</v>
+        <v>20000000</v>
       </c>
       <c r="O37" s="81">
         <f>$E$22</f>
-        <v>19000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5327,11 +5330,11 @@
       <c r="M38" s="57"/>
       <c r="N38" s="90">
         <f>IFERROR(N37/N35, "NA")</f>
-        <v>0.55455656413503773</v>
+        <v>0.58374375172109239</v>
       </c>
       <c r="O38" s="90">
         <f>O37/O35</f>
-        <v>0.60566535290838663</v>
+        <v>0.63754247674567011</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5357,11 +5360,11 @@
       <c r="M39" s="59"/>
       <c r="N39" s="84">
         <f>-PV($E$25/$E$23,$E$24,I45/$E$28/$E$23)</f>
-        <v>19600263.99909427</v>
+        <v>20564622.668318816</v>
       </c>
       <c r="O39" s="84">
         <f>-PV($E$25/$E$23,$E$24,J45/$E$28/$E$23)</f>
-        <v>19506853.096212074</v>
+        <v>20466615.826626882</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -5511,11 +5514,11 @@
       </c>
       <c r="I46" s="78">
         <f>$E$27</f>
-        <v>1469007.1953869597</v>
+        <v>1473809.9814755286</v>
       </c>
       <c r="J46" s="78">
         <f>$E$27</f>
-        <v>1469007.1953869597</v>
+        <v>1473809.9814755286</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5533,11 +5536,11 @@
       <c r="H47" s="58"/>
       <c r="I47" s="103">
         <f>IFERROR(I45/I46, "NA")</f>
-        <v>1.3410706946748887</v>
+        <v>1.3367004734407215</v>
       </c>
       <c r="J47" s="103">
         <f>IFERROR(J45/J46, "NA")</f>
-        <v>1.3346794223724225</v>
+        <v>1.3303300287307458</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -5902,7 +5905,7 @@
       </c>
       <c r="E68" s="73">
         <f>$E$22/D68</f>
-        <v>0.38577847939828708</v>
+        <v>0.40608260989293377</v>
       </c>
       <c r="G68" s="91">
         <v>0.04</v>
@@ -5913,7 +5916,7 @@
       </c>
       <c r="I68" s="73">
         <f>$E$22/H68</f>
-        <v>0.38762582586136746</v>
+        <v>0.40802718511722891</v>
       </c>
     </row>
     <row r="69" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5927,7 +5930,7 @@
       </c>
       <c r="E69" s="73">
         <f t="shared" ref="E69:E76" si="1">$E$22/D69</f>
-        <v>0.43400078932307296</v>
+        <v>0.45684293612955051</v>
       </c>
       <c r="G69" s="75">
         <f>G68+0.5%</f>
@@ -5939,7 +5942,7 @@
       </c>
       <c r="I69" s="73">
         <f t="shared" ref="I69:I76" si="3">$E$22/H69</f>
-        <v>0.43607905409403835</v>
+        <v>0.45903058325688245</v>
       </c>
     </row>
     <row r="70" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5953,7 +5956,7 @@
       </c>
       <c r="E70" s="73">
         <f t="shared" si="1"/>
-        <v>0.48222309924785889</v>
+        <v>0.50760326236616726</v>
       </c>
       <c r="G70" s="75">
         <f t="shared" ref="G70:G76" si="5">G69+0.5%</f>
@@ -5965,7 +5968,7 @@
       </c>
       <c r="I70" s="73">
         <f t="shared" si="3"/>
-        <v>0.48453228232670925</v>
+        <v>0.510033981396536</v>
       </c>
     </row>
     <row r="71" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5979,7 +5982,7 @@
       </c>
       <c r="E71" s="73">
         <f t="shared" si="1"/>
-        <v>0.53044540917264471</v>
+        <v>0.5583635886027839</v>
       </c>
       <c r="G71" s="75">
         <f t="shared" si="5"/>
@@ -5991,7 +5994,7 @@
       </c>
       <c r="I71" s="73">
         <f t="shared" si="3"/>
-        <v>0.53298551055938004</v>
+        <v>0.5610373795361896</v>
       </c>
     </row>
     <row r="72" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6005,7 +6008,7 @@
       </c>
       <c r="E72" s="73">
         <f t="shared" si="1"/>
-        <v>0.57866771909743053</v>
+        <v>0.60912391483940054</v>
       </c>
       <c r="G72" s="75">
         <f t="shared" si="5"/>
@@ -6017,7 +6020,7 @@
       </c>
       <c r="I72" s="73">
         <f t="shared" si="3"/>
-        <v>0.58143873879205099</v>
+        <v>0.6120407776758432</v>
       </c>
     </row>
     <row r="73" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6031,7 +6034,7 @@
       </c>
       <c r="E73" s="73">
         <f t="shared" si="1"/>
-        <v>0.62689002902221636</v>
+        <v>0.65988424107601729</v>
       </c>
       <c r="G73" s="75">
         <f t="shared" si="5"/>
@@ -6043,7 +6046,7 @@
       </c>
       <c r="I73" s="73">
         <f t="shared" si="3"/>
-        <v>0.62989196702472194</v>
+        <v>0.66304417581549679</v>
       </c>
     </row>
     <row r="74" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6057,7 +6060,7 @@
       </c>
       <c r="E74" s="73">
         <f t="shared" si="1"/>
-        <v>0.6751123389470024</v>
+        <v>0.71064456731263403</v>
       </c>
       <c r="G74" s="75">
         <f t="shared" si="5"/>
@@ -6069,7 +6072,7 @@
       </c>
       <c r="I74" s="73">
         <f t="shared" si="3"/>
-        <v>0.67834519525739301</v>
+        <v>0.71404757395515051</v>
       </c>
     </row>
     <row r="75" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6083,7 +6086,7 @@
       </c>
       <c r="E75" s="73">
         <f t="shared" si="1"/>
-        <v>0.72333464887178822</v>
+        <v>0.76140489354925078</v>
       </c>
       <c r="G75" s="75">
         <f t="shared" si="5"/>
@@ -6095,7 +6098,7 @@
       </c>
       <c r="I75" s="73">
         <f t="shared" si="3"/>
-        <v>0.72679842349006385</v>
+        <v>0.76505097209480399</v>
       </c>
     </row>
     <row r="76" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6109,7 +6112,7 @@
       </c>
       <c r="E76" s="73">
         <f t="shared" si="1"/>
-        <v>0.77155695879657415</v>
+        <v>0.81216521978586753</v>
       </c>
       <c r="G76" s="75">
         <f t="shared" si="5"/>
@@ -6121,7 +6124,7 @@
       </c>
       <c r="I76" s="73">
         <f t="shared" si="3"/>
-        <v>0.77525165172273491</v>
+        <v>0.81605437023445782</v>
       </c>
     </row>
     <row r="78" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6155,7 +6158,7 @@
       </c>
       <c r="E80" s="95">
         <f t="shared" ref="E80:E88" si="7">D80/$J$46</f>
-        <v>1.3810798077579038</v>
+        <v>1.3765792066144225</v>
       </c>
       <c r="G80" s="75"/>
     </row>
@@ -6170,7 +6173,7 @@
       </c>
       <c r="E81" s="95">
         <f t="shared" si="7"/>
-        <v>1.3439594994495188</v>
+        <v>1.3395798643074812</v>
       </c>
       <c r="G81" s="75"/>
     </row>
@@ -6185,7 +6188,7 @@
       </c>
       <c r="E82" s="95">
         <f t="shared" si="7"/>
-        <v>1.3068391911411337</v>
+        <v>1.3025805220005398</v>
       </c>
       <c r="G82" s="75"/>
     </row>
@@ -6200,7 +6203,7 @@
       </c>
       <c r="E83" s="95">
         <f t="shared" si="7"/>
-        <v>1.2697188828327486</v>
+        <v>1.2655811796935983</v>
       </c>
       <c r="G83" s="75"/>
     </row>
@@ -6216,7 +6219,7 @@
       </c>
       <c r="E84" s="95">
         <f t="shared" si="7"/>
-        <v>1.2325985745243635</v>
+        <v>1.228581837386657</v>
       </c>
       <c r="G84" s="75"/>
     </row>
@@ -6232,7 +6235,7 @@
       </c>
       <c r="E85" s="95">
         <f t="shared" si="7"/>
-        <v>1.1954782662159786</v>
+        <v>1.1915824950797156</v>
       </c>
       <c r="G85" s="75"/>
     </row>
@@ -6248,7 +6251,7 @@
       </c>
       <c r="E86" s="95">
         <f t="shared" si="7"/>
-        <v>1.1583579579075935</v>
+        <v>1.1545831527727743</v>
       </c>
       <c r="G86" s="75"/>
     </row>
@@ -6264,7 +6267,7 @@
       </c>
       <c r="E87" s="95">
         <f t="shared" si="7"/>
-        <v>1.1212376495992085</v>
+        <v>1.1175838104658329</v>
       </c>
       <c r="G87" s="75"/>
     </row>
@@ -6280,12 +6283,29 @@
       </c>
       <c r="E88" s="95">
         <f t="shared" si="7"/>
-        <v>1.0841173412908234</v>
+        <v>1.0805844681588916</v>
       </c>
       <c r="G88" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="F22:L28"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D11:E11"/>
@@ -6294,23 +6314,6 @@
     <mergeCell ref="F14:L14"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="F13:L13"/>
   </mergeCells>
   <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
@@ -6587,7 +6590,7 @@
       </c>
       <c r="C9" s="194">
         <f>Analysis!J47</f>
-        <v>1.3346794223724225</v>
+        <v>1.3303300287307458</v>
       </c>
       <c r="D9" s="15" cm="1">
         <f t="array" ref="D9">IF(C9&lt;1,6,INDEX($C$16:$I$16,0,MATCH(C9,C21:I21,1)))</f>
@@ -7061,8 +7064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC67213-2BC3-470B-BD5B-086B85D3F5D3}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7217,7 +7220,7 @@
         <v>203</v>
       </c>
       <c r="B11" s="214">
-        <v>0.06</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C11" s="64"/>
       <c r="E11" s="230"/>
@@ -7227,7 +7230,9 @@
       <c r="A12" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="64"/>
+      <c r="B12" s="64" t="s">
+        <v>226</v>
+      </c>
       <c r="C12" s="64"/>
       <c r="F12" s="64"/>
     </row>
@@ -7247,7 +7252,7 @@
       </c>
       <c r="B14" s="219">
         <f>Analysis!E22</f>
-        <v>19000000</v>
+        <v>20000000</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="212" t="s">
@@ -7265,7 +7270,7 @@
       </c>
       <c r="B15" s="220">
         <f>B14-B14/Analysis!E24*6</f>
-        <v>18620000</v>
+        <v>19600000</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="25" t="s">
@@ -7273,7 +7278,7 @@
       </c>
       <c r="F15" s="208">
         <f>B14*$F$14</f>
-        <v>1900000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -7282,7 +7287,7 @@
       </c>
       <c r="B16" s="217">
         <f>Analysis!O38</f>
-        <v>0.60566535290838663</v>
+        <v>0.63754247674567011</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="25" t="s">
@@ -7299,7 +7304,7 @@
       </c>
       <c r="B17" s="215">
         <f>B11</f>
-        <v>0.06</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="25" t="s">
@@ -7307,7 +7312,7 @@
       </c>
       <c r="F17" s="208">
         <f>F15*F16</f>
-        <v>950000</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="217"/>
     </row>
@@ -7374,7 +7379,7 @@
       </c>
       <c r="B23" s="232">
         <f>IFERROR(((B15*B17)+B19)-((B15*B18)+B20)-(B15*B21*B22),"na")</f>
-        <v>350850</v>
+        <v>270000</v>
       </c>
       <c r="C23" s="233"/>
       <c r="D23" s="234" t="s">
@@ -7383,7 +7388,7 @@
       <c r="E23" s="234"/>
       <c r="F23" s="235">
         <f>IFERROR(B23/F17,"na")</f>
-        <v>0.36931578947368421</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
